--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/20/seed3/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.82219999999999</v>
+        <v>-13.10989999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.28510000000003</v>
+        <v>-22.29910000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.83699999999999</v>
+        <v>-21.47909999999997</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.57630000000001</v>
+        <v>-21.56740000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.31859999999999</v>
+        <v>-12.9431</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.36279999999998</v>
+        <v>-14.45429999999998</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.0132</v>
+        <v>-21.72729999999999</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.7319</v>
+        <v>-11.1422</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.7527</v>
+        <v>-11.698</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.51309999999999</v>
+        <v>-21.6027</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.5056</v>
+        <v>-11.6522</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.65549999999999</v>
+        <v>-12.71129999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.829</v>
+        <v>-12.8541</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.6607</v>
+        <v>-11.66490000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.7163</v>
+        <v>-19.6538</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.3933</v>
+        <v>-13.2993</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.02429999999999</v>
+        <v>-13.15999999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.75409999999999</v>
+        <v>-13.8109</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.09089999999999</v>
+        <v>-13.3315</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.28880000000001</v>
+        <v>-22.2999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.63779999999999</v>
+        <v>-21.61469999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.2628</v>
+        <v>-11.2929</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.44140000000001</v>
+        <v>-12.5018</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.48049999999999</v>
+        <v>-20.47379999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.39449999999998</v>
+        <v>-20.63299999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.66039999999999</v>
+        <v>-20.59489999999999</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.94510000000001</v>
+        <v>-19.9285</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.6951</v>
+        <v>-21.7421</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.2018</v>
+        <v>-22.20620000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.1477</v>
+        <v>-21.82869999999999</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.29119999999999</v>
+        <v>-13.59229999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-13.22599999999999</v>
+        <v>-13.38449999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.9737</v>
+        <v>-11.063</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.57220000000001</v>
+        <v>-12.81920000000001</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.2492</v>
+        <v>-12.1404</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-20.97649999999997</v>
+        <v>-20.64069999999997</v>
       </c>
       <c r="B101" t="n">
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.48830000000001</v>
+        <v>-12.86750000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2162,13 +2162,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-19.64929999999999</v>
+        <v>-19.50199999999999</v>
       </c>
       <c r="B102" t="n">
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.04410000000001</v>
+        <v>-13.2855</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
